--- a/VoorbeeldHamming.xlsx
+++ b/VoorbeeldHamming.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eothein/education/ITFundamentals/R-solutions/ITF-solutions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A9A3C79D-DD5C-0241-94DA-1886A25576F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{910D1031-084F-914E-BCC2-917F5BA353D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="1600" windowWidth="28040" windowHeight="17360" xr2:uid="{592C84DD-887E-EC48-8D7B-220A819A6E69}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{592C84DD-887E-EC48-8D7B-220A819A6E69}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="29">
   <si>
     <t>Data</t>
   </si>
@@ -623,8 +623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEA8B87E-967D-BA46-8123-EBBD88EC5FFF}">
   <dimension ref="A1:O93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G79" sqref="G79"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="161" zoomScaleNormal="161" workbookViewId="0">
+      <selection activeCell="M92" sqref="M92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -673,16 +673,16 @@
       </c>
     </row>
     <row r="6" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C6" s="1" t="s">
-        <v>1</v>
+      <c r="C6" s="1">
+        <v>0</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
       </c>
       <c r="E6" s="1">
-        <v>0</v>
-      </c>
-      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L6" s="1">
@@ -699,14 +699,14 @@
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="1">
         <v>1</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
       </c>
       <c r="E7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" s="1">
         <v>1</v>
